--- a/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>96.22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>95.88</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.67</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -726,4 +727,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6213</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8454</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2180</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7479</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1695,4 +1696,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1704,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,17 +1716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1735,14 +1756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>122.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7555</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1751,14 +1794,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9173</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1767,14 +1832,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>118.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1783,13 +1870,1063 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4093</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7112</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6935</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9912</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8520</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2625</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2825,7 +2826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2836,17 +2837,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2856,14 +2877,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.34</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9763</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2872,14 +2915,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14</v>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4121</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2888,14 +2953,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>110.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2904,14 +2991,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06</v>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7532</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2920,13 +3029,1725 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3542</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9150</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8627</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7243</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4416</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4352</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3718</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2992</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2827</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2747</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2539</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4630,7 +4631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4641,17 +4642,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4661,14 +4682,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.36</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4677,14 +4720,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.34</v>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3857</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4693,14 +4758,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>118.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4709,14 +4796,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9357</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4725,14 +4834,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.06</v>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6759</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -4741,13 +4872,2461 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1463</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0407</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8593</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6649</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5471</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3040</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2927</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>37.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011482</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014029</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011483</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>23.43</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
-        <v>21.36</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>22.34</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>22.34</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -600,6 +617,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4852</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8495</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8140</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013886</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6794</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013887</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014350</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014351</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3161,7 +3956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4965,7 +5760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6085,7 +6880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7046,100 +7841,6 @@
       </c>
       <c r="H25" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159962</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证四川国企改革ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7214,26 +7915,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.88</t>
+          <t>95.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0577</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7242,6 +7943,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002268-卫士通.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>9.84</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>23.43</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D4" t="n">
-        <v>21.36</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>22.34</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>22.34</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -616,7 +633,2019 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2746</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007129</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9484</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7366</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6550</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4611</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9432</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8140</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013886</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014350</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009735</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013958</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商鑫选回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013262</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>673090</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015412</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得数字产业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014695</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015413</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得数字产业混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014696</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013959</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商鑫选回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015068</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014351</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015112</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛精选行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>53.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015113</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛精选行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>53.70</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1394,7 +3423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3956,7 +5985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5760,7 +7789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6880,7 +8909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7841,100 +9870,6 @@
       </c>
       <c r="H25" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159962</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证四川国企改革ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -8009,26 +9944,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.88</t>
+          <t>95.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0577</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -8044,51 +9979,51 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -8103,22 +10038,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.22</t>
+          <t>95.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0622</t>
+          <t>0.0577</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -8126,6 +10061,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>